--- a/data/user_enter_lab.xlsx
+++ b/data/user_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B97ECA-B463-4568-8568-844CF2700FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1691848-9BC2-4FF6-AED6-8BC6A7107AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>שם</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>אחראי תוכנית</t>
+  </si>
+  <si>
+    <t>ינון הדר12</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +241,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,13 +467,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -541,8 +550,8 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
-        <v>544816491</v>
+      <c r="E2" s="10">
+        <v>523301800</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>21</v>
@@ -576,8 +585,8 @@
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
-        <v>544816492</v>
+      <c r="E3" s="10">
+        <v>523301802</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>21</v>
@@ -611,8 +620,8 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3">
-        <v>544816493</v>
+      <c r="E4" s="10">
+        <v>523301801</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>22</v>
@@ -731,16 +740,51 @@
       <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1">
-        <v>542017565</v>
+      <c r="E10" s="9">
+        <v>528827064</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="10">
+        <v>523301803</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/user_enter_lab.xlsx
+++ b/data/user_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1691848-9BC2-4FF6-AED6-8BC6A7107AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0E0EA6-617C-4FA0-A3A2-F1562A7BE579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>שם</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>אחראי תוכנית</t>
-  </si>
-  <si>
-    <t>ינון הדר12</t>
   </si>
 </sst>
 </file>
@@ -467,13 +464,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -747,41 +744,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10">
-        <v>523301803</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/user_enter_lab.xlsx
+++ b/data/user_enter_lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFF1364-3F25-4A5A-872A-DA634DFEA947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A082AC94-CD85-47D9-8512-7CEB55C23FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>שם</t>
   </si>
@@ -70,9 +70,6 @@
     <t>דרום</t>
   </si>
   <si>
-    <t>רכז</t>
-  </si>
-  <si>
     <t>רכז אשכול</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>עוז 7</t>
+  </si>
+  <si>
+    <t>רכז מוסד</t>
+  </si>
+  <si>
+    <t>רכז אשכול-מלווה</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A2:XFD8"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -492,7 +495,7 @@
     </row>
     <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -532,7 +535,7 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -572,13 +575,13 @@
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
@@ -612,13 +615,13 @@
     </row>
     <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>8</v>
@@ -652,13 +655,13 @@
     </row>
     <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>8</v>
@@ -692,13 +695,13 @@
     </row>
     <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>8</v>
@@ -732,13 +735,13 @@
     </row>
     <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>8</v>

--- a/data/user_enter_lab.xlsx
+++ b/data/user_enter_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OZKL\T_H\backflask---T.H-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF8D525-EB2D-4E3F-AEA2-7B0137B27B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFF1F53-49DC-4FEB-8EF6-F8206E75F8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="מספרים ייחודים" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>שם - חובה</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>רכז מוסד</t>
+  </si>
+  <si>
+    <t>רכז אשכול</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="9">
-        <v>549247613</v>
+        <v>549247616</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="3"/>
@@ -606,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="9">
-        <v>549247616</v>
+        <v>549247613</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="3"/>
@@ -682,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
@@ -720,11 +723,9 @@
         <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
@@ -27561,7 +27562,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2 D5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"אשכול דרום,אשכול מרכז,אשכול צפון,אשכול בני - דוד"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{32342F2E-A905-4901-831F-891F56A89C74}">
